--- a/biology/Biochimie/Bêta-lactoglobuline/Bêta-lactoglobuline.xlsx
+++ b/biology/Biochimie/Bêta-lactoglobuline/Bêta-lactoglobuline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%AAta-lactoglobuline</t>
+          <t>Bêta-lactoglobuline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La β-lactoglobuline est une protéine du lait qui fait partie de la famille des albumines. Elle est absente chez la femme, mais assez abondante chez la vache ; de l’ordre de 2,5-3 g/L de lait. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%AAta-lactoglobuline</t>
+          <t>Bêta-lactoglobuline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La β-lactoglobuline est une albumine de 18,36 kDa, qui se présente sous la forme d'un dimére à pH entre 3 et 7. Il en existe plusieurs variants. 
-Structure primaire du variant A (séquence de 162 acides aminés)[1] :
+Structure primaire du variant A (séquence de 162 acides aminés) :
 1                                   10                                      20
 Leu Ile Val Thr Gln Thr Met Lys Gly Leu Asp Ile Gln Lys Val Ala Gly Thr Thr Trp 
 21                                  30                                      40
@@ -545,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%AAta-lactoglobuline</t>
+          <t>Bêta-lactoglobuline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,9 +577,11 @@
           <t>Dégradation de la protéine et nutrition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du point de vue nutritionnel, cette protéine est très riche en acides aminés essentiels : 58 % de ces composantes sont essentielles, ce qui fait d’elle la lactoprotéine bovine ayant la plus grande valeur nutritive. Sa digestion se fait dans le jéjunum par la trypsine et la chymotrypsine puisque la pepsine et le pH de l’estomac ne réussissent pas à eux deux à dégrader la β-lactoglobuline, à moins que celle-ci n'ait été préalablement dénaturée par la chaleur (à 80 °C minimum)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du point de vue nutritionnel, cette protéine est très riche en acides aminés essentiels : 58 % de ces composantes sont essentielles, ce qui fait d’elle la lactoprotéine bovine ayant la plus grande valeur nutritive. Sa digestion se fait dans le jéjunum par la trypsine et la chymotrypsine puisque la pepsine et le pH de l’estomac ne réussissent pas à eux deux à dégrader la β-lactoglobuline, à moins que celle-ci n'ait été préalablement dénaturée par la chaleur (à 80 °C minimum).
 Les deux enzymes pancréatiques dégraderont la protéine respectivement en 17 et en 10 peptides pour faciliter l’absorption de celle-ci par la paroi de l’intestin grêle. Puisqu’elle reste à l’état soluble et qu’elle n’est pas dégradée lors de son passage dans l’estomac, son passage vers le jéjunum sera plus rapide comparativement à des protéines subissant l’action de la pepsine. Si l’on compare la β-lactoglobuline avec la caséine, tout génotype confondu, elle mettra environ 20 minutes à traverser l’estomac contre 40 minutes pour le deuxième type de protéine. Après seulement deux heures, 66 % de la quantité totale de β-lactoglobuline est déjà absorbée. De plus, son faible poids moléculaire fait d’elle une protéine des plus digestes (18,36 kDa sous sa forme monomérique et 36 kDa sous sa forme dimérique).
 </t>
         </is>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%AAta-lactoglobuline</t>
+          <t>Bêta-lactoglobuline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la dégradation de la protéine par les enzymes pancréatiques, un peptide est créé, il s’agit d’un dipeptide glutamyl-cystéine. Cette molécule est un précurseur important dans la synthèse du glutathion, ce dernier étant impliqué dans les réactions d’oxydoréduction cellulaire. Ensuite, la β-lactoglobuline sert au transport du rétinol et de la vitamine D en plus d’aider à leur absorption dans l’intestin grêle. C’est en présentant une structure tertiaire homologue à la « retinol binding protein » que cette protéine peut agir comme transporteur pour les deux vitamines précédentes qui se lient au même site de liaison dans une poche hydrophobe formé par le repliement de la structure tertiaire. Un fait intéressant, les vitamines A et D sont contenues dans le lait bovin, tout comme la β-lactoglobuline, et leur absorption sera facilitée car si elles se lient à ce transporteur plutôt qu’à la « retinol binding protein », elles pourront franchir facilement l’estomac sans être dénaturées puisque la protéine qui les transporte les protège par son pHi.
 Cette protéine ne transporte pas seulement des vitamines mais aussi des acides gras libres et des triglycérides, contenus dans le lait. Les lipides profiteraient eux aussi de la poche hydrophobe créée par la structure tertiaire pour leur transport. Les principaux acides gras transportés par la β-lactoglobuline sont l’acide myristique, palmitique, stéarique et oléique. Controversés depuis 1999, les sites de liaison des lipides seraient peut-être les mêmes que pour les vitamines. 
@@ -611,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%AAta-lactoglobuline</t>
+          <t>Bêta-lactoglobuline</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,7 +647,9 @@
           <t>Allergies et chitosan</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La β-lactoglobuline est aussi rencontrée dans un désordre immunologique fréquent ; en fait, elle est l’allergène impliqué dans 82 % des cas d’allergies au lait chez les jeunes enfants. Elle peut entraîner des réactions très violentes chez les nouveau-nés âgés de moins d'un an. Les IgE produits par le corps pour se défendre contre cette lactoprotéine reconnaîtront trois épitopes différents sur la molécule. Ces régions immunogènes se retrouvent dans la structure primaire en position 8-19, 15-29 et 125-135. La structure secondaire est essentielle à la reconnaissance de ces épitopes ; si la protéine est dénaturée, les IgE sont inefficaces. Plusieurs expériences ont démontré que lorsqu'est conjuguée la β-lactoglobuline, il y a baisse de la réaction immunitaire.[citation nécessaire]
 D’ailleurs, des résultats intéressants ont été observés avec une molécule plus spécifiquement : le chitosan, mucopolysaccharide naturel retrouvé chez certains mycètes, levures et crevettes. Le chitosan possède diverses fonctions dont un rôle comme anti-cholestérol, comme agent chélateur d’ions et il serait impliqué dans des activités hémostatiques. Pour résumer l’expérience, lorsque la β-lactoglobuline est conjuguée avec le chitosan dans un ratio de 1:2, l’épitope situé sur les acides aminés 125 à 135, représenté par une hélice alpha, changerait légèrement de conformation, ce qui a pour effet de diminuer la réponse immunitaire contre la protéine. Les résultats ont été confirmés grâce à la technique Elisa avec des anti-anti-β-lactoglobuline. De plus, la conjugaison des deux produits n’a pas atténué la fonction de la protéine, celle-ci gardant la capacité de transporter le rétinol et la vitamine D.
